--- a/Data/Transitions/19591969Translation.xlsx
+++ b/Data/Transitions/19591969Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="648">
   <si>
     <t>id</t>
   </si>
@@ -442,7 +442,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1706,9 +1706,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3872,7 +3869,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>564</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3883,7 +3880,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3894,7 +3891,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3949,7 +3946,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4081,7 +4078,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4125,7 +4122,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4136,7 +4133,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4180,7 +4177,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4268,7 +4265,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4279,7 +4276,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4301,7 +4298,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4378,7 +4375,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4411,7 +4408,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4433,7 +4430,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4455,7 +4452,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4576,7 +4573,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>564</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4631,7 +4628,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4653,7 +4650,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4708,7 +4705,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4774,7 +4771,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4829,7 +4826,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4928,7 +4925,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4994,7 +4991,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5060,7 +5057,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5071,7 +5068,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5225,7 +5222,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5269,7 +5266,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5280,7 +5277,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5368,7 +5365,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5379,7 +5376,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5456,7 +5453,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5544,7 +5541,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5577,7 +5574,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5599,7 +5596,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5632,7 +5629,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5654,7 +5651,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5676,7 +5673,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5698,7 +5695,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5753,7 +5750,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5896,7 +5893,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5907,7 +5904,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5951,7 +5948,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5973,7 +5970,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6072,7 +6069,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6094,7 +6091,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6149,7 +6146,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6171,7 +6168,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6270,7 +6267,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6281,7 +6278,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6292,7 +6289,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6303,7 +6300,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6391,7 +6388,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6457,7 +6454,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6468,7 +6465,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6512,7 +6509,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6589,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6633,7 +6630,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6688,7 +6685,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6732,7 +6729,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6996,7 +6993,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7051,7 +7048,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7073,7 +7070,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7095,7 +7092,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7128,7 +7125,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7150,7 +7147,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7161,7 +7158,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7172,7 +7169,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7194,7 +7191,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7326,7 +7323,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7414,7 +7411,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7458,7 +7455,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7469,7 +7466,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7480,7 +7477,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7535,7 +7532,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7546,7 +7543,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7568,7 +7565,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7590,7 +7587,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7711,7 +7708,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7777,7 +7774,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7865,7 +7862,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7887,7 +7884,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7909,7 +7906,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7920,7 +7917,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7942,7 +7939,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7964,7 +7961,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8063,7 +8060,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
